--- a/src/attributions/attributions_saliency_traj_76.xlsx
+++ b/src/attributions/attributions_saliency_traj_76.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009233247488737106</v>
+        <v>8.50811204600177e-07</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002183323493227363</v>
+        <v>8.839213478495367e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.10559373954311e-05</v>
+        <v>2.294643309141975e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001589994528330863</v>
+        <v>1.340384824288776e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02496621198952198</v>
+        <v>4.681493919633795e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009417129680514336</v>
+        <v>2.035420038737357e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01039176434278488</v>
+        <v>2.79270807368448e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001602734322659671</v>
+        <v>2.649369662321988e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005048342514783144</v>
+        <v>2.176171392420656e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009468458592891693</v>
+        <v>2.083198069158243e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006711305119097233</v>
+        <v>1.052092466125032e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006186301819980145</v>
+        <v>3.722294650287949e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003126650582998991</v>
+        <v>1.441560198145453e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02745955996215343</v>
+        <v>3.44640602634172e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00651104049757123</v>
+        <v>7.210991952888435e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0005625111516565084</v>
+        <v>2.876204234780744e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.450557753443718e-06</v>
+        <v>4.467566213861573e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001067881006747484</v>
+        <v>3.744614332390483e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004165921360254288</v>
+        <v>2.849768634405336e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>0.000410595559515059</v>
+        <v>3.199328602931928e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002151929540559649</v>
+        <v>4.420900552304374e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007677203044295311</v>
+        <v>9.620059699955164e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.982302951044403e-05</v>
+        <v>4.852545771427685e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001736921025440097</v>
+        <v>1.533534373265866e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0002650775713846087</v>
+        <v>2.072360530291917e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001059441477991641</v>
+        <v>2.803835968734347e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004623157437890768</v>
+        <v>1.509166850155452e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.004557413514703512</v>
+        <v>5.022390723752324e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0009908265201374888</v>
+        <v>1.939214371304843e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00212453817948699</v>
+        <v>1.164019522548188e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.005279938224703074</v>
+        <v>3.96142286263057e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00234109116718173</v>
+        <v>3.209864189557265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.001988989301025867</v>
+        <v>1.599793336026778e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0009845213498920202</v>
+        <v>2.145271992048947e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003215851029381156</v>
+        <v>1.120667434406641e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003697284497320652</v>
+        <v>2.063703732346767e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.002237599575892091</v>
+        <v>4.042679393023718e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002331207506358624</v>
+        <v>6.070541985536693e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.003985809162259102</v>
+        <v>5.048888169767451e-07</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001220857491716743</v>
+        <v>3.3871071991598e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.002043584594503045</v>
+        <v>1.886908989945368e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.002773647662252188</v>
+        <v>5.354105496735428e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001329677412286401</v>
+        <v>1.766446757756057e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.002148720202967525</v>
+        <v>3.255990350226057e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.00041689642239362</v>
+        <v>9.820552122619119e-07</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.002142917830497026</v>
+        <v>4.653377800423186e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.002741946838796139</v>
+        <v>3.030621655852883e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.000392474903492257</v>
+        <v>2.410806416719424e-07</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00171624100767076</v>
+        <v>2.702173787838547e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01376723777502775</v>
+        <v>7.480871886400564e-07</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0008011158206500113</v>
+        <v>3.165809630445438e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0009125869255512953</v>
+        <v>2.640694901856477e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00356832193210721</v>
+        <v>7.631845164723927e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.007410173304378986</v>
+        <v>1.582443360348407e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.004355669021606445</v>
+        <v>6.252719799704209e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.001672767451964319</v>
+        <v>7.32780245016329e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>9.516303543932736e-05</v>
+        <v>1.372285396428197e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.003133301623165607</v>
+        <v>7.053090484987479e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.005936599802225828</v>
+        <v>8.730536364964792e-07</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.005379199516028166</v>
+        <v>1.369748702018114e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.002787729259580374</v>
+        <v>1.813371568459843e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.006096154451370239</v>
+        <v>3.774544552470616e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00265051843598485</v>
+        <v>2.223554929514648e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001012078602798283</v>
+        <v>5.732806130254176e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002566069364547729</v>
+        <v>5.57831617697957e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0006838395493105054</v>
+        <v>1.903240445244592e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.001047028577886522</v>
+        <v>1.50061043768801e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003783414140343666</v>
+        <v>2.181400304834824e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001474122400395572</v>
+        <v>2.397914329321793e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.003792752511799335</v>
+        <v>1.634305135667091e-07</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00221411744132638</v>
+        <v>1.851814772635407e-07</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002889763796702027</v>
+        <v>1.30565990730247e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.002528142649680376</v>
+        <v>3.982534508395474e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.001521291909739375</v>
+        <v>2.431743723718682e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0005479184328578413</v>
+        <v>6.143991413409822e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.001633085776120424</v>
+        <v>7.185419690358685e-07</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.009146130643785</v>
+        <v>5.451582637761021e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.003212040290236473</v>
+        <v>8.790456718088535e-08</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001247535459697247</v>
+        <v>2.455874437146122e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.003077050670981407</v>
+        <v>3.608848260228115e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.002469111466780305</v>
+        <v>3.324342060295749e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0018305410631001</v>
+        <v>3.239833404222736e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.001633313950151205</v>
+        <v>2.694625891308533e-07</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.120656088460237e-05</v>
+        <v>5.345118552213535e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00242147478275001</v>
+        <v>3.421109113332932e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.004992121830582619</v>
+        <v>1.719158944979426e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.00159078452270478</v>
+        <v>5.062010473011469e-07</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00267649651505053</v>
+        <v>4.236734412188525e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00280387420207262</v>
+        <v>1.02438229987456e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0004735238326247782</v>
+        <v>1.259835471500992e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0002292771241627634</v>
+        <v>2.684497985683265e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0009768164018169045</v>
+        <v>2.067400146188447e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.001103126560337842</v>
+        <v>5.219438321546477e-07</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00232568965293467</v>
+        <v>1.323587639490142e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002968435175716877</v>
+        <v>3.104601660197659e-07</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001090241596102715</v>
+        <v>6.072277187740838e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.002772746607661247</v>
+        <v>4.334252935223049e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.005059781484305859</v>
+        <v>5.274448085401673e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.043485437752679e-05</v>
+        <v>7.161659596022218e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0008961460553109646</v>
+        <v>3.21104653266957e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.001761170919053257</v>
+        <v>3.883306192165037e-07</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0001342703035334125</v>
+        <v>4.009680480976385e-07</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001464306144043803</v>
+        <v>2.671268475751276e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004737186711281538</v>
+        <v>7.591654025418393e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0009154593572020531</v>
+        <v>1.116973749049066e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.002848416799679399</v>
+        <v>1.126281858887523e-07</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.002397552598267794</v>
+        <v>1.374333010062401e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.001850157743319869</v>
+        <v>6.442469668854756e-09</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005436968058347702</v>
+        <v>8.71659494805499e-07</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.001847870415076613</v>
+        <v>7.498016657336848e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.001629933016374707</v>
+        <v>4.412045655044494e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.007433166727423668</v>
+        <v>3.247218273827457e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001352608785964549</v>
+        <v>4.295642611396033e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002334079938009381</v>
+        <v>4.829075351153733e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.009345482103526592</v>
+        <v>6.446736279031029e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.001810696092434227</v>
+        <v>1.220905573973141e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001586099853739142</v>
+        <v>3.372478431629133e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0004687467589974403</v>
+        <v>2.323112084923196e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.00139817432500422</v>
+        <v>2.384856998105533e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0001506650005467236</v>
+        <v>5.12728001922369e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0006252456223592162</v>
+        <v>6.521312116092304e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001386274700053036</v>
+        <v>3.555922376108356e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0008539207046851516</v>
+        <v>2.101086920447415e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001375024206936359</v>
+        <v>6.424477874134027e-07</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0009636722388677299</v>
+        <v>4.94455548505357e-07</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00264977291226387</v>
+        <v>1.30972409806418e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.002361302031204104</v>
+        <v>5.233857336861547e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.003011415479704738</v>
+        <v>2.776810788418516e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001775827957317233</v>
+        <v>1.138774109676888e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.002565932460129261</v>
+        <v>3.617408538048039e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.004893695935606956</v>
+        <v>9.60035663410963e-07</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0006302567198872566</v>
+        <v>5.788498128822539e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.000820910616312176</v>
+        <v>1.0078301215799e-07</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001178593840450048</v>
+        <v>2.351581997572794e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.006350349169224501</v>
+        <v>1.886764266600949e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.005151646677404642</v>
+        <v>1.165568392025307e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001191923438454978</v>
+        <v>5.980939477012726e-07</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001477631449233741</v>
+        <v>7.936753263493301e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0013614451745525</v>
+        <v>6.927184585947543e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.004614830017089844</v>
+        <v>5.416148241010887e-08</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.003755476325750351</v>
+        <v>6.142720394564094e-07</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002080569276586175</v>
+        <v>7.24171741239843e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.004502403549849987</v>
+        <v>2.345117763979943e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.000432508735684678</v>
+        <v>1.242997541339719e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.001140061183832586</v>
+        <v>4.124041879549623e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.004218133166432381</v>
+        <v>1.642652364353125e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.001738195773214102</v>
+        <v>4.247401193424594e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004271319601684809</v>
+        <v>2.946404720205464e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0004238483088556677</v>
+        <v>4.209217649986385e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.003017718903720379</v>
+        <v>3.21592756336031e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.003269415115937591</v>
+        <v>6.702102837152779e-07</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.004238851368427277</v>
+        <v>1.994938884308795e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00539769884198904</v>
+        <v>9.344657314613869e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.001139143481850624</v>
+        <v>3.954515705117956e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.001173667842522264</v>
+        <v>4.074821049471211e-07</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3.826372267212719e-05</v>
+        <v>4.565748099594202e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001501032616943121</v>
+        <v>3.253088380006375e-06</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.004676477983593941</v>
+        <v>1.589070052432362e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0005464167916215956</v>
+        <v>4.699492706095043e-07</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.001998651539906859</v>
+        <v>5.083195446786704e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.002467039972543716</v>
+        <v>3.791067513247981e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.321705637266859e-05</v>
+        <v>7.380143074442458e-07</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.003748603397980332</v>
+        <v>1.503799239799264e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001960012130439281</v>
+        <v>4.631281171896262e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0009128042729571462</v>
+        <v>6.252957973629236e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.002812603954225779</v>
+        <v>3.649385234893998e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0006923163309693336</v>
+        <v>2.608967406558804e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.002559378044679761</v>
+        <v>2.224645413662074e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00210096943192184</v>
+        <v>2.001529992412543e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.005401359405368567</v>
+        <v>8.100167292468541e-07</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004564402624964714</v>
+        <v>1.580579237270285e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.002846052870154381</v>
+        <v>7.467054274457041e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002200517803430557</v>
+        <v>5.369371137931012e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00257008383050561</v>
+        <v>2.308399587036547e-07</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01091997511684895</v>
+        <v>1.651900674914941e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0003133459540549666</v>
+        <v>2.195393108195276e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0009141881600953639</v>
+        <v>1.200508563670155e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.002678320975974202</v>
+        <v>1.212611641676631e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.005717052612453699</v>
+        <v>5.320078798831673e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.005366707220673561</v>
+        <v>2.25535586650949e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.001459804130718112</v>
+        <v>6.899260370119009e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001968932105228305</v>
+        <v>6.698894026158086e-07</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.003768084105104208</v>
+        <v>7.617085884703556e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.001362969516776502</v>
+        <v>4.231662842357764e-08</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.002979457844048738</v>
+        <v>4.547125172393862e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.007100983988493681</v>
+        <v>5.624478944810107e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001375202089548111</v>
+        <v>5.502164185600122e-06</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.004007769282907248</v>
+        <v>1.048925355462416e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.003281314391642809</v>
+        <v>2.280168018842232e-06</v>
       </c>
     </row>
     <row r="3">
